--- a/VCO/Assembly/smd_cpl.xlsx
+++ b/VCO/Assembly/smd_cpl.xlsx
@@ -279,10 +279,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>-14.0</v>
+        <v>-14.5</v>
       </c>
       <c r="C4" s="2">
-        <v>70.0</v>
+        <v>70.27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -296,10 +296,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>-24.0</v>
+        <v>-23.5</v>
       </c>
       <c r="C5" s="2">
-        <v>66.0</v>
+        <v>66.52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -313,10 +313,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>-14.0</v>
+        <v>-14.5</v>
       </c>
       <c r="C6" s="2">
-        <v>48.3</v>
+        <v>48.77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -330,10 +330,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>-24.0</v>
+        <v>-23.5</v>
       </c>
       <c r="C7" s="2">
-        <v>47.75</v>
+        <v>48.52</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -364,16 +364,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>-13.5</v>
+        <v>-14.75</v>
       </c>
       <c r="C9" s="2">
-        <v>39.0</v>
+        <v>39.25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="10">
@@ -381,10 +381,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>-24.25</v>
+        <v>-23.75</v>
       </c>
       <c r="C10" s="2">
-        <v>39.75</v>
+        <v>39.23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -398,10 +398,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>-15.5</v>
+        <v>-12.5</v>
       </c>
       <c r="C11" s="2">
-        <v>58.25</v>
+        <v>60.5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -551,16 +551,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>-31.0</v>
+        <v>-24.0</v>
       </c>
       <c r="C20" s="2">
-        <v>60.25</v>
+        <v>58.5</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="21">
@@ -619,10 +619,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>-22.5</v>
+        <v>-24.6625</v>
       </c>
       <c r="C24" s="2">
-        <v>44.75</v>
+        <v>46.25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>

--- a/VCO/Assembly/smd_cpl.xlsx
+++ b/VCO/Assembly/smd_cpl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Designator</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
   <si>
     <t>R1</t>
@@ -279,10 +282,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>-14.5</v>
+        <v>-14.2</v>
       </c>
       <c r="C4" s="2">
-        <v>70.27</v>
+        <v>70.125</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -296,10 +299,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>-23.5</v>
+        <v>-23.8</v>
       </c>
       <c r="C5" s="2">
-        <v>66.52</v>
+        <v>66.325</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -313,10 +316,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>-14.5</v>
+        <v>-14.2</v>
       </c>
       <c r="C6" s="2">
-        <v>48.77</v>
+        <v>48.575</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -330,10 +333,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>-23.5</v>
+        <v>-23.8</v>
       </c>
       <c r="C7" s="2">
-        <v>48.52</v>
+        <v>48.025</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -364,10 +367,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>-14.75</v>
+        <v>-14.45</v>
       </c>
       <c r="C9" s="2">
-        <v>39.25</v>
+        <v>39.375</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -381,10 +384,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>-23.75</v>
+        <v>-24.05</v>
       </c>
       <c r="C10" s="2">
-        <v>39.23</v>
+        <v>39.525</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -398,7 +401,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>-12.5</v>
+        <v>-11.938</v>
       </c>
       <c r="C11" s="2">
         <v>60.5</v>
@@ -469,13 +472,13 @@
         <v>-24.75</v>
       </c>
       <c r="C15" s="2">
-        <v>73.5</v>
+        <v>53.975</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="16">
@@ -486,7 +489,7 @@
         <v>-24.75</v>
       </c>
       <c r="C16" s="2">
-        <v>71.25</v>
+        <v>73.5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -503,7 +506,7 @@
         <v>-24.75</v>
       </c>
       <c r="C17" s="2">
-        <v>69.0</v>
+        <v>71.25</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -517,16 +520,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>-13.25</v>
+        <v>-24.75</v>
       </c>
       <c r="C18" s="2">
-        <v>53.0</v>
+        <v>69.0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="19">
@@ -534,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>-21.5</v>
+        <v>-13.25</v>
       </c>
       <c r="C19" s="2">
-        <v>73.75</v>
+        <v>53.0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -551,10 +554,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>-24.0</v>
+        <v>-21.5</v>
       </c>
       <c r="C20" s="2">
-        <v>58.5</v>
+        <v>73.75</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -568,16 +571,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>-19.0</v>
+        <v>-24.0</v>
       </c>
       <c r="C21" s="2">
-        <v>65.0</v>
+        <v>58.5</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="22">
@@ -585,16 +588,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>-21.75</v>
+        <v>-19.0</v>
       </c>
       <c r="C22" s="2">
-        <v>58.5</v>
+        <v>65.0</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -602,16 +605,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>-24.75</v>
+        <v>-21.75</v>
       </c>
       <c r="C23" s="2">
-        <v>50.75</v>
+        <v>58.5</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2">
-        <v>180.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="24">
@@ -619,10 +622,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>-24.6625</v>
+        <v>-24.75</v>
       </c>
       <c r="C24" s="2">
-        <v>46.25</v>
+        <v>50.75</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -636,10 +639,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>-15.5</v>
+        <v>-24.7125</v>
       </c>
       <c r="C25" s="2">
-        <v>60.5</v>
+        <v>45.35</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -653,10 +656,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>-13.25</v>
+        <v>-15.5</v>
       </c>
       <c r="C26" s="2">
-        <v>55.75</v>
+        <v>60.5</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -670,10 +673,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>-21.75</v>
+        <v>-13.25</v>
       </c>
       <c r="C27" s="2">
-        <v>63.0</v>
+        <v>55.75</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -687,16 +690,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>-11.25</v>
+        <v>-21.75</v>
       </c>
       <c r="C28" s="2">
-        <v>42.0</v>
+        <v>63.0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="29">
@@ -704,16 +707,16 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>-31.0</v>
+        <v>-11.25</v>
       </c>
       <c r="C29" s="2">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -721,10 +724,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>-27.25</v>
+        <v>-31.0</v>
       </c>
       <c r="C30" s="2">
-        <v>34.75</v>
+        <v>37.0</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -741,7 +744,7 @@
         <v>-27.25</v>
       </c>
       <c r="C31" s="2">
-        <v>37.0</v>
+        <v>34.75</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -755,16 +758,16 @@
         <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>-11.25</v>
+        <v>-27.25</v>
       </c>
       <c r="C32" s="2">
-        <v>36.75</v>
+        <v>37.0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="33">
@@ -772,16 +775,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>-14.25</v>
+        <v>-11.25</v>
       </c>
       <c r="C33" s="2">
-        <v>42.75</v>
+        <v>36.75</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -792,13 +795,13 @@
         <v>-14.25</v>
       </c>
       <c r="C34" s="2">
-        <v>36.0</v>
+        <v>42.75</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2">
-        <v>90.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="35">
@@ -806,10 +809,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>-24.25</v>
+        <v>-14.25</v>
       </c>
       <c r="C35" s="2">
-        <v>35.5</v>
+        <v>36.0</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -823,16 +826,16 @@
         <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>-11.25</v>
+        <v>-24.25</v>
       </c>
       <c r="C36" s="2">
-        <v>44.5</v>
+        <v>35.5</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2">
-        <v>180.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +846,7 @@
         <v>-11.25</v>
       </c>
       <c r="C37" s="2">
-        <v>34.5</v>
+        <v>44.5</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -857,16 +860,16 @@
         <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>-8.25</v>
+        <v>-11.25</v>
       </c>
       <c r="C38" s="2">
-        <v>36.75</v>
+        <v>34.5</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2">
-        <v>270.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="39">
@@ -874,16 +877,16 @@
         <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>-27.25</v>
+        <v>-8.25</v>
       </c>
       <c r="C39" s="2">
-        <v>31.0</v>
+        <v>36.75</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2">
-        <v>0.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="40">
@@ -891,16 +894,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>-19.0</v>
+        <v>-27.25</v>
       </c>
       <c r="C40" s="2">
-        <v>69.0</v>
+        <v>31.0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -911,7 +914,7 @@
         <v>-19.0</v>
       </c>
       <c r="C41" s="2">
-        <v>51.25</v>
+        <v>69.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -925,15 +928,32 @@
         <v>46</v>
       </c>
       <c r="B42" s="2">
+        <v>-19.0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>51.25</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="2">
         <v>-19.25</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <v>38.75</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2">
         <v>90.0</v>
       </c>
     </row>
